--- a/biology/Botanique/Orites_excelsus/Orites_excelsus.xlsx
+++ b/biology/Botanique/Orites_excelsus/Orites_excelsus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Orites excelsus est une espèce d'arbre originaire des forêts tropicales du nord de la Nouvelle-Galles du Sud et du sud-est du Queensland, en Australie. Connu dans son pays sous les noms communs Prickly Ash, Mountain Silky Oak ou White Beefwood, il appartient au genre Orites, dans la famille des Proteaceae.
 Sur les autres projets Wikimedia :
